--- a/model-collection.xlsx
+++ b/model-collection.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/ShiftFormer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B45C22-920F-5D4F-B681-782593286121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A561480-8910-F744-8CEC-8EDC76AECE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{358A018E-0AB4-6B48-9D83-B4987FA4C18F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{358A018E-0AB4-6B48-9D83-B4987FA4C18F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="figure" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">figure!$F$4:$F$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="65">
   <si>
     <t>Model</t>
   </si>
@@ -154,13 +158,88 @@
   </si>
   <si>
     <t>gMLP-B</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>Parms</t>
+  </si>
+  <si>
+    <t>Macs</t>
+  </si>
+  <si>
+    <t>Thoughtout</t>
+  </si>
+  <si>
+    <t>PVT</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>DeiT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Swin-T</t>
+  </si>
+  <si>
+    <t>ResNet</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>T2T-ViT</t>
+  </si>
+  <si>
+    <t>AS-MLP</t>
+  </si>
+  <si>
+    <t>ConNeXt</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PoolFormer</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>M36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +271,16 @@
       <color theme="1"/>
       <name val="NimbusRomNo9L"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,17 +298,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A033D7D3-2265-0342-BCC4-7C8C7CAE9A8C}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1150,4 +1339,817 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75602B6D-4636-8840-9D7A-B831C7CB12B3}">
+  <dimension ref="B1:R27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="12.5" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="9">
+        <v>18</v>
+      </c>
+      <c r="C4" s="12">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="5">
+        <v>72.2</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="12">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="5">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="9">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3.7</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13">
+        <v>75.5</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="12">
+        <v>22</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="5">
+        <v>79.8</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="12">
+        <v>50</v>
+      </c>
+      <c r="P5" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="9">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13">
+        <v>79.8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="12">
+        <v>86</v>
+      </c>
+      <c r="J6" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="5">
+        <v>81.8</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="12">
+        <v>88</v>
+      </c>
+      <c r="P6" s="5">
+        <v>15.4</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="5">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="9">
+        <v>101</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45</v>
+      </c>
+      <c r="D7" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13">
+        <v>81.3</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="13"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="9">
+        <v>152</v>
+      </c>
+      <c r="C8" s="12">
+        <v>60</v>
+      </c>
+      <c r="D8" s="12">
+        <v>11.6</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13">
+        <v>81.8</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="13"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="2:18" ht="17" thickBot="1">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="2:18" ht="17" thickBot="1">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="12">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="12">
+        <v>5</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="5">
+        <v>72.2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>14</v>
+      </c>
+      <c r="O13" s="5">
+        <v>21.5</v>
+      </c>
+      <c r="P13" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="5">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3.8</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13">
+        <v>79.8</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="12">
+        <v>22</v>
+      </c>
+      <c r="J14" s="12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="5">
+        <v>79.8</v>
+      </c>
+      <c r="N14" s="9">
+        <v>19</v>
+      </c>
+      <c r="O14" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="P14" s="5">
+        <v>8.5</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="5">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44</v>
+      </c>
+      <c r="D15" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13">
+        <v>81.2</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="12">
+        <v>86</v>
+      </c>
+      <c r="J15" s="12">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="5">
+        <v>81.8</v>
+      </c>
+      <c r="N15" s="9">
+        <v>24</v>
+      </c>
+      <c r="O15" s="5">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="P15" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="5">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12">
+        <v>61</v>
+      </c>
+      <c r="D16" s="12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13">
+        <v>81.7</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="13"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="13"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+    </row>
+    <row r="19" spans="2:18" ht="17" thickBot="1"/>
+    <row r="20" spans="2:18">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="18">
+        <v>28</v>
+      </c>
+      <c r="D22" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="18">
+        <v>81.3</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="12">
+        <v>28</v>
+      </c>
+      <c r="J22" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="5">
+        <v>82.1</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="5">
+        <v>12</v>
+      </c>
+      <c r="P22" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="5">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="12">
+        <v>50</v>
+      </c>
+      <c r="D23" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13">
+        <v>83.1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="12">
+        <v>50</v>
+      </c>
+      <c r="J23" s="18">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="5">
+        <v>83.1</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="5">
+        <v>21</v>
+      </c>
+      <c r="P23" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="5">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="12">
+        <v>88</v>
+      </c>
+      <c r="D24" s="18">
+        <v>15.2</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="13">
+        <v>83.3</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="12">
+        <v>89</v>
+      </c>
+      <c r="J24" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="5">
+        <v>83.8</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="5">
+        <v>31</v>
+      </c>
+      <c r="P24" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="5">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="12">
+        <v>198</v>
+      </c>
+      <c r="J25" s="18">
+        <v>45</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="18">
+        <v>84.3</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="12">
+        <v>56</v>
+      </c>
+      <c r="P25" s="12">
+        <v>9.1</v>
+      </c>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="13">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="13"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="2:18" ht="17" thickBot="1">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="O11:R11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/model-collection.xlsx
+++ b/model-collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/ShiftFormer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A561480-8910-F744-8CEC-8EDC76AECE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC2EBF3-C487-FE4A-A94B-F992CB83D337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{358A018E-0AB4-6B48-9D83-B4987FA4C18F}"/>
   </bookViews>
@@ -1346,7 +1346,7 @@
   <dimension ref="B1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="R22" sqref="R22:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
